--- a/data/copies/optimization_config.xlsx
+++ b/data/copies/optimization_config.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eggy\dissertation-files-final\bioreactor-implementation-june\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDDB5BC8-F6E7-4421-9AB9-3885DE6B7B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3952719-0D84-4CE1-9D1E-3F95D0ADCACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
     <sheet name="decision_var" sheetId="2" r:id="rId2"/>
     <sheet name="decision_var_bound" sheetId="3" r:id="rId3"/>
-    <sheet name="influent_compound_conc" sheetId="4" r:id="rId4"/>
-    <sheet name="cost_param" sheetId="5" r:id="rId5"/>
-    <sheet name="fuzzy_goal" sheetId="6" r:id="rId6"/>
+    <sheet name="cost_var" sheetId="7" r:id="rId4"/>
+    <sheet name="capex_calc" sheetId="8" r:id="rId5"/>
+    <sheet name="influent_compound_conc" sheetId="4" r:id="rId6"/>
+    <sheet name="fuzzy_goal" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="142">
   <si>
     <t>Parameter</t>
   </si>
@@ -49,24 +50,12 @@
     <t>model_path</t>
   </si>
   <si>
-    <t>models/clefo_model.joblib</t>
-  </si>
-  <si>
-    <t>M_penalty</t>
-  </si>
-  <si>
     <t>I_variables</t>
   </si>
   <si>
     <t>flow_rate</t>
   </si>
   <si>
-    <t>HRT</t>
-  </si>
-  <si>
-    <t>DO_setpoint</t>
-  </si>
-  <si>
     <t>Variable</t>
   </si>
   <si>
@@ -121,48 +110,9 @@
     <t>inf_S_ALK</t>
   </si>
   <si>
-    <t>inf_S_O2</t>
-  </si>
-  <si>
-    <t>inf_X_MeOH</t>
-  </si>
-  <si>
-    <t>inf_X_MeP</t>
-  </si>
-  <si>
-    <t>C_base</t>
-  </si>
-  <si>
-    <t>V_base</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>F_BM</t>
-  </si>
-  <si>
-    <t>P_mix_specific</t>
-  </si>
-  <si>
-    <t>eta_aerator</t>
-  </si>
-  <si>
-    <t>p_elec</t>
-  </si>
-  <si>
-    <t>H_op</t>
-  </si>
-  <si>
-    <t>f_maint</t>
-  </si>
-  <si>
     <t>C_labor</t>
   </si>
   <si>
-    <t>rho_O2_bio</t>
-  </si>
-  <si>
     <t>Goal</t>
   </si>
   <si>
@@ -172,29 +122,356 @@
     <t>Max</t>
   </si>
   <si>
-    <t>Effluent_S_NH4</t>
-  </si>
-  <si>
-    <t>Effluent_S_NO3</t>
-  </si>
-  <si>
-    <t>Effluent_S_PO4</t>
-  </si>
-  <si>
-    <t>Effluent_X_S</t>
-  </si>
-  <si>
     <t>CAPEX</t>
   </si>
   <si>
     <t>AOC</t>
+  </si>
+  <si>
+    <t>models\clarifier\clarifier.joblib</t>
+  </si>
+  <si>
+    <t>Q_was</t>
+  </si>
+  <si>
+    <t>Q_ext</t>
+  </si>
+  <si>
+    <t>O3_split_internal</t>
+  </si>
+  <si>
+    <t>C1_surface_area</t>
+  </si>
+  <si>
+    <t>C1_height</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Clarifier height [m]</t>
+  </si>
+  <si>
+    <t>C1_wall_thickness</t>
+  </si>
+  <si>
+    <t>Thickness of clarifier walls [m]</t>
+  </si>
+  <si>
+    <t>C1_base_thickness</t>
+  </si>
+  <si>
+    <t>Thickness of clarifier base slab [m]</t>
+  </si>
+  <si>
+    <t>Sludge wastage flowrate [m3/d]</t>
+  </si>
+  <si>
+    <t>External recycle flowrate from C1 to A1 [m3/d]</t>
+  </si>
+  <si>
+    <t>unit_cost_concrete</t>
+  </si>
+  <si>
+    <t>unit_cost_steel</t>
+  </si>
+  <si>
+    <t>Unit cost of steel reinforcement [USD/ton]</t>
+  </si>
+  <si>
+    <t>steel_reinforcement_ratio</t>
+  </si>
+  <si>
+    <t>Ratio of steel to concrete [ton/m3]</t>
+  </si>
+  <si>
+    <t>equipment_cost_factor</t>
+  </si>
+  <si>
+    <t>Equipment cost as a fraction of construction cost</t>
+  </si>
+  <si>
+    <t>engineering_cost_factor</t>
+  </si>
+  <si>
+    <t>Engineering &amp; design as a fraction of construction + equipment cost</t>
+  </si>
+  <si>
+    <t>contingency_factor</t>
+  </si>
+  <si>
+    <t>Contingency as a fraction of construction + equipment cost</t>
+  </si>
+  <si>
+    <t>scraper_motor_power</t>
+  </si>
+  <si>
+    <t>sludge_pump_power</t>
+  </si>
+  <si>
+    <t>Power rating of the sludge pumps [kW]</t>
+  </si>
+  <si>
+    <t>pump_efficiency</t>
+  </si>
+  <si>
+    <t>Overall efficiency of the sludge pumps</t>
+  </si>
+  <si>
+    <t>TDH_pump</t>
+  </si>
+  <si>
+    <t>Total Dynamic Head for sludge pumps [m]</t>
+  </si>
+  <si>
+    <t>electricity_price</t>
+  </si>
+  <si>
+    <t>Unit price of electricity [USD/kWh]</t>
+  </si>
+  <si>
+    <t>maintenance_factor</t>
+  </si>
+  <si>
+    <t>Annual maintenance cost as a fraction of equipment cost</t>
+  </si>
+  <si>
+    <t>labor_rate</t>
+  </si>
+  <si>
+    <t>Hourly labor rate for operators [USD/hour]</t>
+  </si>
+  <si>
+    <t>daily_labor_hours</t>
+  </si>
+  <si>
+    <t>Daily operator hours for clarifier tasks [hours/day]</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>rho</t>
+  </si>
+  <si>
+    <t>Density of water [ kg/m3 ]</t>
+  </si>
+  <si>
+    <t>Output Variable</t>
+  </si>
+  <si>
+    <t>Calculation</t>
+  </si>
+  <si>
+    <t>V_concrete_walls</t>
+  </si>
+  <si>
+    <t>(C1_surface_area**0.5 * 4) * C1_height * C1_wall_thickness</t>
+  </si>
+  <si>
+    <t>V_concrete_base</t>
+  </si>
+  <si>
+    <t>Volume of concrete for base [m3]</t>
+  </si>
+  <si>
+    <t>C1_surface_area * C1_base_thickness</t>
+  </si>
+  <si>
+    <t>V_concrete_total</t>
+  </si>
+  <si>
+    <t>Total volume of concrete [m3]</t>
+  </si>
+  <si>
+    <t>V_concrete_walls + V_concrete_base</t>
+  </si>
+  <si>
+    <t>W_steel</t>
+  </si>
+  <si>
+    <t>Total weight of steel reinforcement [ton]</t>
+  </si>
+  <si>
+    <t>V_concrete_total * steel_reinforcement_ratio</t>
+  </si>
+  <si>
+    <t>C_const</t>
+  </si>
+  <si>
+    <t>Total Construction Cost [USD]</t>
+  </si>
+  <si>
+    <t>(V_concrete_total * unit_cost_concrete) + (W_steel * unit_cost_steel)</t>
+  </si>
+  <si>
+    <t>C_equip</t>
+  </si>
+  <si>
+    <t>Total Equipment Cost [USD]</t>
+  </si>
+  <si>
+    <t>C_const * equipment_cost_factor</t>
+  </si>
+  <si>
+    <t>C_direct</t>
+  </si>
+  <si>
+    <t>Direct Costs (Construction + Equipment) [USD]</t>
+  </si>
+  <si>
+    <t>C_const + C_equip</t>
+  </si>
+  <si>
+    <t>C_engineering</t>
+  </si>
+  <si>
+    <t>Engineering &amp; Design Cost [USD]</t>
+  </si>
+  <si>
+    <t>C_direct * engineering_cost_factor</t>
+  </si>
+  <si>
+    <t>C_contingency</t>
+  </si>
+  <si>
+    <t>Contingency Cost [USD]</t>
+  </si>
+  <si>
+    <t>C_direct * contingency_factor</t>
+  </si>
+  <si>
+    <t>Total Clarifier CAPEX [USD]</t>
+  </si>
+  <si>
+    <t>C_direct + C_engineering + C_contingency</t>
+  </si>
+  <si>
+    <t>energy_scraper_yearly</t>
+  </si>
+  <si>
+    <t>scraper_motor_power * 24 * 365</t>
+  </si>
+  <si>
+    <t>energy_pumps_yearly</t>
+  </si>
+  <si>
+    <t>Annual energy for sludge pumps [kWh/year]</t>
+  </si>
+  <si>
+    <t>((Q_was + Q_ext) * rho * g * TDH_pump) / (24 * 3600 * 1000 * pump_efficiency) * 24 * 365</t>
+  </si>
+  <si>
+    <t>C_energy</t>
+  </si>
+  <si>
+    <t>Annual Energy Cost [USD/year]</t>
+  </si>
+  <si>
+    <t>(energy_scraper_yearly + energy_pumps_yearly) * electricity_price</t>
+  </si>
+  <si>
+    <t>C_maint</t>
+  </si>
+  <si>
+    <t>Annual Maintenance Cost [USD/year]</t>
+  </si>
+  <si>
+    <t>C_equip * maintenance_factor</t>
+  </si>
+  <si>
+    <t>Annual Labor Cost [USD/year]</t>
+  </si>
+  <si>
+    <t>daily_labor_hours * 365 * labor_rate</t>
+  </si>
+  <si>
+    <t>Total Clarifier AOC [USD/year]</t>
+  </si>
+  <si>
+    <t>C_energy + C_maint + C_labor</t>
+  </si>
+  <si>
+    <t># Constants: Gravitational acceleration [m/s2]</t>
+  </si>
+  <si>
+    <t># Unit Costs &amp; Factors (AOC): Power rating of the scraper motor [kW]</t>
+  </si>
+  <si>
+    <t># Unit Costs (CAPEX): Unit cost of concrete [USD/m3]</t>
+  </si>
+  <si>
+    <t># Design Inputs: Clarifier surface area [m2]</t>
+  </si>
+  <si>
+    <t># CAPEX Calculations: Volume of concrete for walls [m3]</t>
+  </si>
+  <si>
+    <t># AOC Calculations: Annual energy for scraper [kWh/year]</t>
+  </si>
+  <si>
+    <t>Target_Effluent_S_NH4 (mg/L)</t>
+  </si>
+  <si>
+    <t>Target_Effluent_S_NO3 (mg/L)</t>
+  </si>
+  <si>
+    <t>Source of Standard</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Target_Effluent_COD (mg/L)</t>
+  </si>
+  <si>
+    <t>Philippines: DENR Administrative Order 2016-08[1]</t>
+  </si>
+  <si>
+    <t>Target_Effluent_BOD (mg/L)</t>
+  </si>
+  <si>
+    <t>Target_Effluent_TP (mg/L)</t>
+  </si>
+  <si>
+    <t>Target_Effluent_TSS (mg/L)</t>
+  </si>
+  <si>
+    <t>Limits are dependent on the classification of the receiving water body.</t>
+  </si>
+  <si>
+    <t>Limits vary depending on the classification of the receiving water body (Class A, B, C, D for freshwater and SA, SB, SC, SD for marine water).[1][2] For establishments with influent BOD ≥ 3,000 mg/L discharging to specific water classes, different standards may apply.[1][3]</t>
+  </si>
+  <si>
+    <t>Limits vary based on the classification of the receiving water body. For establishments with influent BOD ≥ 3,000 mg/L, specific effluent standards for BOD are enforced.[3][4]</t>
+  </si>
+  <si>
+    <t>Philippines: DENR Administrative Order 2021-19[9][10]</t>
+  </si>
+  <si>
+    <t>The standard is for Phosphate as P and the limit varies depending on the classification of the receiving water body.[9][10]</t>
+  </si>
+  <si>
+    <t>Philippines: DENR Administrative Order 2021-19</t>
+  </si>
+  <si>
+    <t>The limits for Ammonia as NH₃-N were updated in DAO 2021-19 and vary depending on the water body classification. For Class AA (freshwater) and SA (marine water), the standard is No Discharge Allowed (NDA).[3][4]</t>
+  </si>
+  <si>
+    <t>Philippines: DENR Administrative Order 2016-08</t>
+  </si>
+  <si>
+    <t>The limits vary depending on the classification of the receiving water body.[5][6]</t>
+  </si>
+  <si>
+    <t>n/a</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,6 +483,19 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -243,13 +533,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -553,16 +853,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -578,15 +878,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>1000000000</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -596,35 +888,50 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -634,61 +941,100 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="C2">
-        <v>15000</v>
+        <f>B2*10</f>
+        <v>100000</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <f t="shared" ref="C3:C7" si="0">B3*10</f>
+        <v>1000</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B4">
+        <v>10000</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5">
+        <v>0.1</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C4">
-        <v>8</v>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6">
+        <v>800</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -697,11 +1043,492 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCB90DCB-9184-4A4C-ADAC-9EF9649A54F3}">
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B19"/>
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22">
+        <v>9.81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68876A8-317C-4419-AD33-026FAB570D50}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="77.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -712,7 +1539,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -720,146 +1547,122 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2">
-        <v>286.94466593641903</v>
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>15.30182353654962</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2">
-        <v>15.72484285309055</v>
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>1370.1019480783889</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="2">
-        <v>141.7049140685956</v>
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>1.4790660490900831</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="2">
-        <v>304.65352542497891</v>
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>19.660271109244469</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="2">
-        <v>470.63880679767362</v>
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>300.11969116517008</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="2">
-        <v>224.98159408799941</v>
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>43.543633164702307</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="2">
-        <v>14.720558662376609</v>
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>5.9128477477474206</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="2">
-        <v>129.52744278258109</v>
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>5.3352533564363473E-3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="2">
-        <v>127.5079813632493</v>
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>17.246973718716379</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="2">
-        <v>79.201765127461243</v>
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>0.18005230397620631</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="2">
-        <v>89.134811045522682</v>
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>87.393417561510091</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="2">
-        <v>2683.2934261679652</v>
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <v>3022.197505679067</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="2">
-        <v>240.5777886927074</v>
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>105.7547487555956</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="2">
-        <v>200.79381032861019</v>
+        <v>21</v>
+      </c>
+      <c r="B15">
+        <v>80.005588615161301</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="2">
-        <v>363.70260924018191</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="2">
-        <v>11.569916992069089</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="2">
-        <v>17.3656246508789</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="2">
-        <v>19.33246666912498</v>
+        <v>22</v>
+      </c>
+      <c r="B16">
+        <v>108.203686922611</v>
       </c>
     </row>
   </sheetData>
@@ -867,218 +1670,178 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B12"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="18.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.08984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.90625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="115.26953125" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="18.1796875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="6">
+        <v>60</v>
+      </c>
+      <c r="C2" s="6">
+        <v>300</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="6">
+        <v>30</v>
+      </c>
+      <c r="C3" s="6">
+        <v>100</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="C4" s="6">
+        <v>10</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="6">
+        <v>70</v>
+      </c>
+      <c r="C5" s="6">
+        <v>200</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6">
+        <v>9</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="6">
+        <v>14</v>
+      </c>
+      <c r="C7" s="6">
         <v>30</v>
       </c>
-      <c r="B2">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9">
-        <v>8760</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12">
-        <v>200</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <f>D1*influent_compound_conc!B7</f>
-        <v>22.498159408799943</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <f>D1*influent_compound_conc!B9</f>
-        <v>12.952744278258109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <f>D1*influent_compound_conc!B10</f>
-        <v>12.750798136324931</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <f>D1*influent_compound_conc!B6</f>
-        <v>47.063880679767365</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6">
-        <v>5000000</v>
-      </c>
-      <c r="C6">
-        <f>B6*1.7</f>
-        <v>8500000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7">
-        <f>B6/3</f>
-        <v>1666666.6666666667</v>
-      </c>
-      <c r="C7">
-        <f>B7*1.8</f>
-        <v>3000000</v>
+      <c r="D7" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="6">
+        <v>8000000</v>
+      </c>
+      <c r="C8" s="6">
+        <f>B8*1.7</f>
+        <v>13600000</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="6">
+        <f>B8/10</f>
+        <v>800000</v>
+      </c>
+      <c r="C9" s="6">
+        <f>B9*1.8</f>
+        <v>1440000</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
